--- a/formshare/tests/resources/forms/multi_language/ODK_simple_lng_ext.xlsx
+++ b/formshare/tests/resources/forms/multi_language/ODK_simple_lng_ext.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t xml:space="preserve">form_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version</t>
   </si>
   <si>
     <t xml:space="preserve">Language Ext</t>
@@ -371,10 +374,10 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="E2:E6 E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.69"/>
@@ -529,13 +532,13 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2:E6"/>
+      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.64"/>
@@ -666,13 +669,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="E2:E6 A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.41"/>
@@ -686,13 +689,19 @@
       <c r="B1" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
